--- a/doc_KB/dev/import/I082.xlsx
+++ b/doc_KB/dev/import/I082.xlsx
@@ -19,9 +19,6 @@
     <t>SPECID</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>ACCTNO</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>0001000308</t>
+  </si>
+  <si>
+    <t>0003</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,21 +400,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>43588</v>
@@ -425,10 +425,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>43588</v>
